--- a/src/test/resources/PlanZTestData/LoginPage.xlsx
+++ b/src/test/resources/PlanZTestData/LoginPage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Selenium Java\GitHub\PlanZTestScripts\src\test\resources\PlanZTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A757294-4DB4-4AEA-BB14-12D004719597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65021925-08BA-457F-85EA-F7B8BD9124DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9147EC13-84A6-4BC9-9E59-95F836CBA8D6}"/>
+    <workbookView minimized="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7280" xr2:uid="{9147EC13-84A6-4BC9-9E59-95F836CBA8D6}"/>
   </bookViews>
   <sheets>
     <sheet name="NormalLogin" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>admin@example.com</t>
-  </si>
-  <si>
-    <t>nnN3ZYjw</t>
-  </si>
-  <si>
-    <t>clickdoc.dev@gmail.com</t>
   </si>
   <si>
     <t>Password</t>
@@ -466,7 +457,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -481,63 +472,43 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="C4">
-        <v>123456</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{CAC44038-3BD1-4852-ACEE-C2E013BD11CC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>